--- a/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
+++ b/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AfterDownload\Data\GithubRepository\DeepLearning-notes\02_Computer_Vision\Models(模型)\Semantic_Segmentation(语义分割)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96073266-B230-4B0C-9E7D-D60B5681E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811849D8-2C81-4541-901E-85A0746DD778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>模型 (Model)</t>
   </si>
@@ -149,9 +149,6 @@
     <t>一个轻量级的Transformer解码器，它接收图像嵌入、提示嵌入和输出Token作为输入，高效地预测掩码。</t>
   </si>
   <si>
-    <t>基础模型(Foundation Model)、提示工程(Prompt Engineering)、Vision Transformer(ViT)、数据飞轮(Data Flywheel)。</t>
-  </si>
-  <si>
     <t>泛化能力极强，无需微调即可分割任意物体，交互性好，开创了分割的新方向，但无法直接输出类别标签。</t>
   </si>
   <si>
@@ -777,6 +774,697 @@
         <charset val="134"/>
       </rPr>
       <t>: 在少量训练样本下仍能表现出色。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPerNet</t>
+  </si>
+  <si>
+    <t>ResNet, ResNeXt, Swin Transformer等主流分类网络。</t>
+  </si>
+  <si>
+    <t>基础模型(Foundation Model)、提示工程(Prompt Engineering)、Vision Transformer(ViT)、数据飞轮(Data Flywheel)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>集大成者。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UPerNet并非提出全新的基础模块，但它卓越地展示了如何将当时最顶尖的两个组件(PPM, FPN)有机结合，构建出一个极为强大且灵活的分割框架。其“双金字塔”和“为任务匹配特征”的设计哲学影响深远，至今仍是许多现代分割模型的基石和性能标杆。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双金字塔结构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在编码器顶端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强全局和多尺度上下文感知，在解码器端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自顶向下融合深层语义与浅层细节。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多任务解析头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计了多个独立的解析头（场景、物体、部件、材质、纹理），并根据任务特性将其连接到最合适的特征层级（如场景头接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，纹理头接浅层特征）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终特征聚合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的所有层级特征上采样至统一尺寸后进行拼接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Concatenate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和深度融合，为精细分割任务提供极其丰富的信息表示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>提出了一个“统一感知解析”(Unified Perceptual Parsing)框架，通过巧妙地整合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金字塔池化模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PPM)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和特征金字塔网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FPN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，旨在同时识别多尺度物体并理解复杂的上下文关系，以实现对场景的全面、多粒度理解。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔池化模块(PPM), 特征金字塔网络(FPN), 横向连接(Lateral Connection), 多任务学习(Multi-task Learning), 特征融合(Feature Fusion)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架通用性强，主干网络可灵活替换；通过融合PPM和FPN，特征表达能力强大，对大小物体和复杂场景的解析效果优异；多头设计思想清晰，为不同粒度的解析任务匹配最合适的特征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Backbone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最深层特征</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(C5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，捕获多尺度上下文，生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>P5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构建自顶向下的路径，通过上采样和横向连接，逐层融合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>P(i+1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，生成特征金字塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>P2,P3,P4,P5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最终融合与分割头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金字塔所有层级上采样至相同尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1/4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后拼接，通过一个瓶颈卷积层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Bottleneck)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行深度融合，最后接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷积进行像素级分类。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,7 +1473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +1517,32 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1180,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1193,7 +1907,7 @@
     <col min="3" max="3" width="23.9140625" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="6" max="6" width="33.58203125" customWidth="1"/>
     <col min="7" max="7" width="24.1640625" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="33.6640625" customWidth="1"/>
@@ -1219,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1239,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>10</v>
@@ -1254,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1268,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>17</v>
@@ -1283,7 +1997,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1297,13 +2011,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
@@ -1312,7 +2026,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,7 +2040,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>26</v>
@@ -1341,7 +2055,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1355,7 +2069,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>32</v>
@@ -1370,10 +2084,10 @@
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="94" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +2098,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>38</v>
@@ -1393,17 +2107,47 @@
         <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
+++ b/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AfterDownload\Data\GithubRepository\DeepLearning-notes\02_Computer_Vision\Models(模型)\Semantic_Segmentation(语义分割)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811849D8-2C81-4541-901E-85A0746DD778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BEF6C-993E-456F-A331-097F8CA78639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>模型 (Model)</t>
   </si>
@@ -805,232 +805,6 @@
   </si>
   <si>
     <r>
-      <t>1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双金字塔结构</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在编码器顶端使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>PPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增强全局和多尺度上下文感知，在解码器端使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>FPN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自顶向下融合深层语义与浅层细节。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多任务解析头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>设计了多个独立的解析头（场景、物体、部件、材质、纹理），并根据任务特性将其连接到最合适的特征层级（如场景头接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>PPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，纹理头接浅层特征）。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最终特征聚合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>FPN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>输出的所有层级特征上采样至统一尺寸后进行拼接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Concatenate)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和深度融合，为精细分割任务提供极其丰富的信息表示。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>提出了一个“统一感知解析”(Unified Perceptual Parsing)框架，通过巧妙地整合</t>
     </r>
     <r>
@@ -1465,6 +1239,818 @@
         <charset val="134"/>
       </rPr>
       <t>卷积进行像素级分类。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将语义分割任务重新定义为一个序列到序列(Sequence-to-Sequence)的预测任务，利用纯Transformer架构强大的全局上下文建模能力进行特征提取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision Transformer (ViT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像分块(Image Patching)、线性嵌入(Linear Projection)、可学习位置编码(Position Embedding)、多头自注意力机制(Multi-Head Self-Attention)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范式革新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首次将纯粹的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构作为编码器成功应用于语义分割，摆脱了对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆叠卷积下采样范式的依赖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图像序列化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将输入图像切分为固定大小的图像块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Patches)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列，并结合可学习的位置编码，使其能作为标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的输入。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码器创新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码器输出的单一尺度特征序列，设计了三种不同复杂度的解码器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Naive, PUP, MLA)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行像素级预测。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>论文中提出了三种设计：1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Naive Decoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1x1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷积分类头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单步双线性插值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PUP (Progressive Upsampling)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于传统解码器的渐进式上采样结构。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>MLA (Multi-Level Feature Aggregation)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从编码器不同层级提取特征，并行处理后进行多级特征聚合，性能最强。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 编码器每一层都具有全局感受野，长距离依赖建模能力强。2. 编码器输出为单一尺度的特征图，而非传统CNN的多尺度特征金字塔。3. 性能强大，但对计算资源要求高，且对小目标的分割不如专门设计的模型精细。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颠覆者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>SETR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打破了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>CNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在分割领域的长期“垄断”，证明了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构在密集预测任务上的巨大潜力。它将分割视为序列预测的全新视角，为后续基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的视觉模型（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Swin-Transformer, SegFormer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）铺平了道路，是理解从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>CNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时代到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时代过渡的关键模型。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双金字塔结构</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在编码器顶端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强全局和多尺度上下文感知，在解码器端使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自顶向下融合深层语义与浅层细节。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 多任务解析头</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计了多个独立的解析头（场景、物体、部件、材质、纹理），并根据任务特性将其连接到最合适的特征层级（如场景头接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，纹理头接浅层特征）。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t> 最终特征聚合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>FPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的所有层级特征上采样至统一尺寸后进行拼接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Concatenate)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和深度融合，为精细分割任务提供极其丰富的信息表示。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1473,7 +2059,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +2130,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1592,26 +2193,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1894,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1914,60 +2513,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>2015</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1975,25 +2574,25 @@
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="2">
         <v>2015</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2001,31 +2600,31 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>2018</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2033,25 +2632,25 @@
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <v>2017</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -2059,31 +2658,31 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>2019</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2091,25 +2690,25 @@
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>2023</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2120,29 +2719,58 @@
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="2">
         <v>2018</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
+++ b/02_Computer_Vision/Models(模型)/Semantic_Segmentation(语义分割)/图像分割模型对比表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AfterDownload\Data\GithubRepository\DeepLearning-notes\02_Computer_Vision\Models(模型)\Semantic_Segmentation(语义分割)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\GitHubRepo\DeepLearning-notes\02_Computer_Vision\Models(模型)\Semantic_Segmentation(语义分割)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4BEF6C-993E-456F-A331-097F8CA78639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30951C7-CF94-467B-B807-CE54F1DCFAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>模型 (Model)</t>
   </si>
@@ -2051,6 +2051,739 @@
         <charset val="134"/>
       </rPr>
       <t>和深度融合，为精细分割任务提供极其丰富的信息表示。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SegFormer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摒弃复杂设计，通过构建一个分层的Transformer编码器和一个极度轻量级的MLP解码器，实现了一个简单、高效且性能强大的语义分割框架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次成功将纯粹的Vision Transformer (ViT)架构作为骨干网络，通过一个精心设计的卷积解码器，高效地解决了密集预测任务。其核心是“用Transformer的全局视野编码，用卷积的局部精细操作解码”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiT (Mix-Transformer) 系列 (B0-B5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision Transformer (ViT-Base, ViT-Large, ViT-Hybrid)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个完全由MLP层(1x1卷积)构成的极简解码器。它将多尺度特征统一通道和尺寸后，直接拼接并用MLP输出预测结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一个基于卷积的解码器。它首先通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reassemble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作将不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转换为特征图，然后通过多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fusion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块（包含残差卷积单元和上采样）逐步融合这些多尺度特征，恢复空间分辨率。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 分层</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不依赖位置编码，能输出多尺度的特征金字塔，兼顾高分辨率细节与深层语义。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA7A7A7"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轻量级全</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MLP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仅用线性层高效融合多尺度特征，参数量极少，计算开销低。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为密集预测骨干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首次证明了标准的、非分层的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可作为密集预测任务的强大通用骨干。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA7A7A7"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Reassemble</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计了将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出的一维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>序列重新组装成二维图像式特征图的关键模块。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA7A7A7"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多尺度特征融合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解码器从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编码器的多个中间层提取特征，并逐级上采样融合，结合了全局语义与局部细节。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分层Transformer、高效自注意力(Efficient Self-Attention)、混合前馈网络(Mix-FFN)、重叠块嵌入(Overlapped Patch Merging)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vision Transformer (ViT)、自注意力(Self-Attention)、Reassemble操作、多尺度特征融合、残差卷积单元(Residual Conv Unit)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构简洁高效，性能强大。因摒弃了位置编码，对不同分辨率输入的泛化能力和鲁棒性强。在同等计算量下达到SOTA性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有强大的全局上下文建模能力。打破了CNN在密集预测领域的传统范式，为ViT在下游任务的应用开辟了新方向。能灵活处理可变尺寸输入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化繁为简的典范</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SegFormer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深刻洞察到强大的编码器可以极大简化解码器的设计，其追求极致效率与性能平衡的设计哲学，使其成为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在分割领域的一个里程碑式的工作，证明了简洁架构的巨大潜力。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开创者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成功地将为分类设计的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>架构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翻译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到了密集预测任务中，其设计的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reassemble</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fusion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块优雅地解决了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到像素的转换难题，为后续大量基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ViT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的分割</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深度估计模型铺平了道路。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2059,7 +2792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2118,19 +2851,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F2328"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF1F2328"/>
@@ -2144,6 +2864,41 @@
       <color rgb="FF1F2328"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA7A7A7"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2175,17 +2930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2193,13 +2948,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2210,7 +2965,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2493,26 +3254,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.4140625" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="23.9140625" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.58203125" customWidth="1"/>
-    <col min="7" max="7" width="24.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="47.625" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="9" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2541,236 +3302,294 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>2015</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="8">
         <v>2015</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>2018</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:9" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="8">
         <v>2017</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="74" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>2019</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="8">
         <v>2023</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:9" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="8">
         <v>2018</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="131.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:9" ht="131.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2021</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
